--- a/docs/pages/tools/material_table_maker/excel/c_原生種素材.xlsx
+++ b/docs/pages/tools/material_table_maker/excel/c_原生種素材.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\PSNOVA\docs\pages\tools\material_table_maker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA620E3E-0F38-4CB0-84D0-BF1AB83A4284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7899A6ED-F5BB-4158-80D4-1261D548CBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="272">
   <si>
     <t>名称</t>
   </si>
@@ -210,640 +210,637 @@
     <t>レイバンサー　VHツメ破壊</t>
   </si>
   <si>
-    <t>爬虫類の鱗片</t>
-  </si>
-  <si>
-    <t>獣の皮片</t>
-  </si>
-  <si>
-    <t>鳥の皮片</t>
-  </si>
-  <si>
-    <t>巨大獣の皮片</t>
-  </si>
-  <si>
-    <t>鳥の羽毛</t>
-  </si>
-  <si>
-    <t>ラウーダンの爪片</t>
-  </si>
-  <si>
-    <t>ロザードのヒレ片</t>
-  </si>
-  <si>
-    <t>マフレザールの皮片</t>
-  </si>
-  <si>
-    <t>ジュラキアの大羽</t>
-  </si>
-  <si>
-    <t>バンサーの爪片</t>
-  </si>
-  <si>
-    <t>テッラマンデルの鱗片</t>
-  </si>
-  <si>
-    <t>アグリオスの砲片</t>
-  </si>
-  <si>
-    <t>ラウーダンの大毛皮</t>
-  </si>
-  <si>
-    <t>ロザードの爪</t>
-  </si>
-  <si>
-    <t>マフレザールの鋭鉤爪</t>
-  </si>
-  <si>
-    <t>ジュラキアの硬骨</t>
-  </si>
-  <si>
-    <t>バンサーの牙片</t>
-  </si>
-  <si>
-    <t>テッラマンデルの大髭</t>
-  </si>
-  <si>
-    <t>バンサーの角片</t>
-  </si>
-  <si>
-    <t>水晶竜族の鱗</t>
-  </si>
-  <si>
-    <t>トルリンプの鱗</t>
-  </si>
-  <si>
-    <t>グランブの大凝固粘液</t>
-  </si>
-  <si>
-    <t>トルリンプの鋭牙</t>
-  </si>
-  <si>
-    <t>ウィンディラスの結晶角</t>
-  </si>
-  <si>
-    <t>バリバッツの墨片</t>
-  </si>
-  <si>
-    <t>グランブの爪片</t>
-  </si>
-  <si>
-    <t>バリドランナの舌片</t>
-  </si>
-  <si>
-    <t>ロウトルリンプのヒレ片</t>
-  </si>
-  <si>
-    <t>バリバッツの翼膜</t>
-  </si>
-  <si>
-    <t>グランブの甲羅</t>
-  </si>
-  <si>
-    <t>バリドランナの鉤爪</t>
-  </si>
-  <si>
-    <t>ロウトルリンプの胸ビレ</t>
-  </si>
-  <si>
-    <t>バリバッツの大目玉</t>
-  </si>
-  <si>
-    <t>グランブの硬粘液結晶</t>
-  </si>
-  <si>
-    <t>バリドランナの大光玉</t>
-  </si>
-  <si>
-    <t>ロウトルリンプの硬尾ひれ</t>
-  </si>
-  <si>
-    <t>機械生物の甲片</t>
-  </si>
-  <si>
-    <t>機械生物の油片</t>
-  </si>
-  <si>
-    <t>機械生物のフレーム</t>
-  </si>
-  <si>
-    <t>獣の牙</t>
-  </si>
-  <si>
-    <t>獣の骨</t>
-  </si>
-  <si>
-    <t>ベガルフの牙片</t>
-  </si>
-  <si>
-    <t>フォンベガルフの牙片</t>
-  </si>
-  <si>
-    <t>アセラビーソの刃片</t>
-  </si>
-  <si>
-    <t>エデルクリトロの爪片</t>
-  </si>
-  <si>
-    <t>トネルバンクゥの石片</t>
-  </si>
-  <si>
-    <t>ベガルフの体毛</t>
-  </si>
-  <si>
-    <t>フォンベガルフの体毛</t>
-  </si>
-  <si>
-    <t>アセラビーソの原動機</t>
-  </si>
-  <si>
-    <t>エデリクリトロの毛皮</t>
-  </si>
-  <si>
-    <t>トネルバンクゥの宝石</t>
-  </si>
-  <si>
-    <t>レイバンサーの角</t>
-  </si>
-  <si>
-    <t>フォンベガルフの鋭爪</t>
-  </si>
-  <si>
-    <t>アセラビーソの硬耳部鎖</t>
-  </si>
-  <si>
-    <t>レイバンサーの爪</t>
-  </si>
-  <si>
-    <t>ロヴラッピーの甲片</t>
-  </si>
-  <si>
-    <t>ヴィマフレザールの皮片</t>
-  </si>
-  <si>
-    <t>バレダイナスの銃片</t>
-  </si>
-  <si>
-    <t>シルブカーネベアの砲片</t>
-  </si>
-  <si>
-    <t>ロヴラッピーの主翼</t>
-  </si>
-  <si>
-    <t>ヴィマフレザールの鉤爪</t>
-  </si>
-  <si>
-    <t>バレダイナスの弾倉</t>
-  </si>
-  <si>
-    <t>シルブカーネベアの毛皮</t>
-  </si>
-  <si>
-    <t>ロヴラッピーの大機</t>
-  </si>
-  <si>
-    <t>ヴィマフレザールの硬皮膜</t>
-  </si>
-  <si>
-    <t>フロベガルフの牙</t>
-  </si>
-  <si>
-    <t>フロフォンベガルフの牙</t>
-  </si>
-  <si>
-    <t>イエーデンの爪</t>
-  </si>
-  <si>
-    <t>ブロラビーソの刃</t>
-  </si>
-  <si>
-    <t>オーニクリトロの爪</t>
-  </si>
-  <si>
-    <t>クリトロクィーンの爪</t>
-  </si>
-  <si>
-    <t>トルリンプのヒレ</t>
-  </si>
-  <si>
-    <t>フロベガルフの体毛</t>
-  </si>
-  <si>
-    <t>フロフォンベガルフの体毛</t>
-  </si>
-  <si>
-    <t>イエーデンの毛皮</t>
-  </si>
-  <si>
-    <t>ブロラビーソの原動機</t>
-  </si>
-  <si>
-    <t>オーニクリトロの毛皮</t>
-  </si>
-  <si>
-    <t>クリトロクィーンの毛皮</t>
-  </si>
-  <si>
-    <t>トルリンプの大胸ビレ</t>
-  </si>
-  <si>
-    <t>フロベガルフの爪</t>
-  </si>
-  <si>
-    <t>フロフォンベガルフの爪</t>
-  </si>
-  <si>
-    <t>イエーデンの硬頭骨</t>
-  </si>
-  <si>
-    <t>爬虫類の牙</t>
-  </si>
-  <si>
-    <t>ドギオスの骨</t>
-  </si>
-  <si>
-    <t>サフグランブの爪</t>
-  </si>
-  <si>
-    <t>マガヴルムの手</t>
-  </si>
-  <si>
-    <t>リバッツの墨</t>
-  </si>
-  <si>
-    <t>ウィ・ロヴラッピーの胴甲</t>
-  </si>
-  <si>
-    <t>コパイエーデンの爪片</t>
-  </si>
-  <si>
-    <t>ポリジュラキアの羽</t>
-  </si>
-  <si>
-    <t>マーバレダイナスの銃</t>
-  </si>
-  <si>
-    <t>水晶竜族の結晶</t>
-  </si>
-  <si>
-    <t>サフグランブの甲羅</t>
-  </si>
-  <si>
-    <t>マガヴルムの銃身</t>
-  </si>
-  <si>
-    <t>リバッツの翼膜</t>
-  </si>
-  <si>
-    <t>ウィ・ロヴラッピーの主翼</t>
-  </si>
-  <si>
-    <t>コパイエーデンの毛皮</t>
-  </si>
-  <si>
-    <t>ポリジュラキアの骨</t>
-  </si>
-  <si>
-    <t>マーバレダイナスの弾倉</t>
-  </si>
-  <si>
-    <t>水晶竜族の結晶塊</t>
-  </si>
-  <si>
-    <t>サフグランブの粘液結晶</t>
-  </si>
-  <si>
-    <t>リバッツの目玉</t>
-  </si>
-  <si>
-    <t>ウィ・ロヴラッピーの大機</t>
-  </si>
-  <si>
-    <t>コパイエーデンの硬頭骨</t>
-  </si>
-  <si>
-    <t>ポリジュラキアの大尾羽</t>
-  </si>
-  <si>
-    <t>水晶竜族の鋭結晶角</t>
-  </si>
-  <si>
-    <t>アビアディノの骨</t>
-  </si>
-  <si>
-    <t>クロザードのヒレ</t>
-  </si>
-  <si>
-    <t>エルマフレザールの硬皮</t>
-  </si>
-  <si>
-    <t>フリラウーダンの爪</t>
-  </si>
-  <si>
-    <t>ミステルンの鋭角</t>
-  </si>
-  <si>
-    <t>ラビーソの刃片</t>
-  </si>
-  <si>
-    <t>レイバンサーの駆動銃座</t>
-  </si>
-  <si>
-    <t>ウィンディラスの翼</t>
-  </si>
-  <si>
-    <t>ガンジュラキアの羽片</t>
-  </si>
-  <si>
-    <t>バンクゥの硬宝石</t>
-  </si>
-  <si>
-    <t>レウ・ロヴラッピーの胴甲</t>
-  </si>
-  <si>
-    <t>シードギオスの盾</t>
-  </si>
-  <si>
-    <t>モストカーネベアの硬砲身</t>
-  </si>
-  <si>
-    <t>マドアビアディノの大コブ</t>
-  </si>
-  <si>
-    <t>クロザードの爪</t>
-  </si>
-  <si>
-    <t>エルマフレザールの鋭鉤爪</t>
-  </si>
-  <si>
-    <t>フリラウーダンの毛皮</t>
-  </si>
-  <si>
-    <t>ミステルンの鋭翼角</t>
-  </si>
-  <si>
-    <t>ラビーソの原動機</t>
-  </si>
-  <si>
-    <t>ウィンディラスの大尾</t>
-  </si>
-  <si>
-    <t>ガンジュラキアの硬骨</t>
-  </si>
-  <si>
-    <t>バンクゥの大宝石</t>
-  </si>
-  <si>
-    <t>レウ・ロヴラッピーの主翼</t>
-  </si>
-  <si>
-    <t>シードギオスの硬装甲</t>
-  </si>
-  <si>
-    <t>モストカーネベアの毛皮</t>
-  </si>
-  <si>
-    <t>マドアビアディノの鋭爪</t>
-  </si>
-  <si>
-    <t>フリラウーダンの鋭牙</t>
-  </si>
-  <si>
-    <t>ラビーソの硬耳部鎖</t>
-  </si>
-  <si>
-    <t>レウ・ロヴラッピーの大油</t>
-  </si>
-  <si>
-    <t>ラーアビアディノのコブ</t>
-  </si>
-  <si>
-    <t>メドジュラキアの大羽</t>
-  </si>
-  <si>
-    <t>バンサーの爪</t>
-  </si>
-  <si>
-    <t>バンサーの牙</t>
-  </si>
-  <si>
-    <t>ラピミステルンの角</t>
-  </si>
-  <si>
-    <t>ヴァッドギオスの硬盾</t>
-  </si>
-  <si>
-    <t>スロザードのヒレ</t>
-  </si>
-  <si>
-    <t>ノイバリドランナの舌</t>
-  </si>
-  <si>
-    <t>ヴィバレダイナスの銃</t>
-  </si>
-  <si>
-    <t>ウイマフレザールの皮</t>
-  </si>
-  <si>
-    <t>ラーアビアディノの爪</t>
-  </si>
-  <si>
-    <t>メドジュラキアの硬骨</t>
-  </si>
-  <si>
-    <t>バンサーの骨</t>
-  </si>
-  <si>
-    <t>ラピミステルンの鋭翼角</t>
-  </si>
-  <si>
-    <t>ヴァッドギオスの硬装甲</t>
-  </si>
-  <si>
-    <t>スロザードの鋭爪</t>
-  </si>
-  <si>
-    <t>ノイバリドランナの鋭爪</t>
-  </si>
-  <si>
-    <t>ヴィバレダイナスの大弾倉</t>
-  </si>
-  <si>
-    <t>ウイマフレザールの鋭鉤爪</t>
-  </si>
-  <si>
-    <t>ラーアビアディノの鋭歯</t>
-  </si>
-  <si>
-    <t>バンサーの頭角</t>
-  </si>
-  <si>
-    <t>機械生物の硬皮膜</t>
-  </si>
-  <si>
-    <t>機械生物の硬骨格</t>
-  </si>
-  <si>
-    <t>ウロザードの硬ヒレ</t>
-  </si>
-  <si>
-    <t>レゾルカーネベアの硬砲身</t>
-  </si>
-  <si>
-    <t>オルテ・マガヴルムの硬手</t>
-  </si>
-  <si>
-    <t>パーグランブの鋭爪</t>
-  </si>
-  <si>
-    <t>イーグマンデルの硬鱗</t>
-  </si>
-  <si>
-    <t>マクロージの鋭角</t>
-  </si>
-  <si>
-    <t>エアドギオスの大盾</t>
-  </si>
-  <si>
-    <t>ウロザードの鋭爪</t>
-  </si>
-  <si>
-    <t>レゾルカーネベアの大毛皮</t>
-  </si>
-  <si>
-    <t>オルテ・マガヴルムの大銃</t>
-  </si>
-  <si>
-    <t>パーグランブの硬甲羅</t>
-  </si>
-  <si>
-    <t>イーグマンデルの大髭</t>
-  </si>
-  <si>
-    <t>マクロージの大目玉</t>
-  </si>
-  <si>
-    <t>エアドギオスの硬装甲</t>
-  </si>
-  <si>
-    <t>エクセージTの大目玉</t>
-  </si>
-  <si>
-    <t>レゾルカーネベアの硬頭骨</t>
-  </si>
-  <si>
-    <t>エクセージTの鋭杭腕</t>
-  </si>
-  <si>
-    <t>ガーグランブの鋭爪</t>
-  </si>
-  <si>
-    <t>スマラクリトロの鋭爪</t>
-  </si>
-  <si>
-    <t>レイバンサーの大機関砲</t>
-  </si>
-  <si>
-    <t>バオム・マガヴルムの硬手</t>
-  </si>
-  <si>
-    <t>ヴェンバンクゥの硬宝石</t>
-  </si>
-  <si>
-    <t>エレマンデルの硬棘鱗皮</t>
-  </si>
-  <si>
-    <t>オラルカーネベアの硬砲身</t>
-  </si>
-  <si>
-    <t>アビアディノの大コブ</t>
-  </si>
-  <si>
-    <t>アガミステルンの鋭角</t>
-  </si>
-  <si>
-    <t>ポルトルリンプの大ヒレ</t>
-  </si>
-  <si>
-    <t>ガーグランブの硬甲羅</t>
-  </si>
-  <si>
-    <t>ラーバレダイナスの大弾倉</t>
-  </si>
-  <si>
-    <t>グリバッツの硬翼膜</t>
-  </si>
-  <si>
-    <t>スォロバンクゥの大宝石</t>
-  </si>
-  <si>
-    <t>スマラクリトロの大毛皮</t>
-  </si>
-  <si>
-    <t>レイバンサーの鋭頭角</t>
-  </si>
-  <si>
-    <t>バオム・マガヴルムの大銃</t>
-  </si>
-  <si>
-    <t>ヴェンバンクゥの大宝石</t>
-  </si>
-  <si>
-    <t>エレマンデルの大髭</t>
-  </si>
-  <si>
-    <t>オラルカーネベアの大毛皮</t>
-  </si>
-  <si>
-    <t>アビアディノの鋭爪</t>
-  </si>
-  <si>
-    <t>アガミステルンの鋭翼角</t>
-  </si>
-  <si>
-    <t>ポルトルリンプの大胸ビレ</t>
-  </si>
-  <si>
-    <t>フレスバンクゥの大宝石</t>
-  </si>
-  <si>
-    <t>ブリバッツの硬翼膜</t>
-  </si>
-  <si>
-    <t>フォードギオスの硬装甲</t>
-  </si>
-  <si>
-    <t>ガーグランブの硬粘液結晶</t>
-  </si>
-  <si>
-    <t>ラーバレダイナスの大照準</t>
-  </si>
-  <si>
-    <t>レイバンサーの鋭鉤爪</t>
-  </si>
-  <si>
-    <t>レ・マクロージの鋭角</t>
-  </si>
-  <si>
-    <t>レ・エクセージTの大目玉</t>
-  </si>
-  <si>
-    <t>レ・エクセージTの鋭杭腕</t>
-  </si>
-  <si>
-    <t>バンサーの鋭鉤爪</t>
-  </si>
-  <si>
-    <t>ミステルンの大しっぽ</t>
-  </si>
-  <si>
-    <t>バンサーの鋭牙</t>
-  </si>
-  <si>
-    <t>バンサーの鋭頭角</t>
-  </si>
-  <si>
-    <t>トルリンプのしっぽ</t>
+    <t>爬虫類の鱗片?</t>
+  </si>
+  <si>
+    <t>獣の皮片?</t>
+  </si>
+  <si>
+    <t>鳥の皮片?</t>
+  </si>
+  <si>
+    <t>巨大獣の皮片?</t>
+  </si>
+  <si>
+    <t>鳥の羽毛?</t>
+  </si>
+  <si>
+    <t>ラウーダンの爪片?</t>
+  </si>
+  <si>
+    <t>ロザードのヒレ片?</t>
+  </si>
+  <si>
+    <t>マフレザールの皮片?</t>
+  </si>
+  <si>
+    <t>ジュラキアの大羽?</t>
+  </si>
+  <si>
+    <t>バンサーの爪片?</t>
+  </si>
+  <si>
+    <t>テッラマンデルの鱗片?</t>
+  </si>
+  <si>
+    <t>アグリオスの砲片?</t>
+  </si>
+  <si>
+    <t>ラウーダンの大毛皮?</t>
+  </si>
+  <si>
+    <t>ロザードの爪?</t>
+  </si>
+  <si>
+    <t>マフレザールの鋭鉤爪?</t>
+  </si>
+  <si>
+    <t>ジュラキアの硬骨?</t>
+  </si>
+  <si>
+    <t>バンサーの牙片?</t>
+  </si>
+  <si>
+    <t>テッラマンデルの大髭?</t>
+  </si>
+  <si>
+    <t>バンサーの角片?</t>
+  </si>
+  <si>
+    <t>水晶竜族の鱗?</t>
+  </si>
+  <si>
+    <t>トルリンプの鱗?</t>
+  </si>
+  <si>
+    <t>グランブの大凝固粘液?</t>
+  </si>
+  <si>
+    <t>トルリンプの鋭牙?</t>
+  </si>
+  <si>
+    <t>ウィンディラスの結晶角?</t>
+  </si>
+  <si>
+    <t>バリバッツの墨片?</t>
+  </si>
+  <si>
+    <t>グランブの爪片?</t>
+  </si>
+  <si>
+    <t>バリドランナの舌片?</t>
+  </si>
+  <si>
+    <t>ロウトルリンプのヒレ片?</t>
+  </si>
+  <si>
+    <t>バリバッツの翼膜?</t>
+  </si>
+  <si>
+    <t>グランブの甲羅?</t>
+  </si>
+  <si>
+    <t>バリドランナの鉤爪?</t>
+  </si>
+  <si>
+    <t>ロウトルリンプの胸ビレ?</t>
+  </si>
+  <si>
+    <t>バリバッツの大目玉?</t>
+  </si>
+  <si>
+    <t>グランブの硬粘液結晶?</t>
+  </si>
+  <si>
+    <t>バリドランナの大光玉?</t>
+  </si>
+  <si>
+    <t>ロウトルリンプの硬尾ひれ?</t>
+  </si>
+  <si>
+    <t>機械生物の甲片?</t>
+  </si>
+  <si>
+    <t>機械生物の油片?</t>
+  </si>
+  <si>
+    <t>機械生物のフレーム?</t>
+  </si>
+  <si>
+    <t>獣の牙?</t>
+  </si>
+  <si>
+    <t>獣の骨?</t>
+  </si>
+  <si>
+    <t>ベガルフの牙片?</t>
+  </si>
+  <si>
+    <t>フォンベガルフの牙片?</t>
+  </si>
+  <si>
+    <t>アセラビーソの刃片?</t>
+  </si>
+  <si>
+    <t>エデルクリトロの爪片?</t>
+  </si>
+  <si>
+    <t>トネルバンクゥの石片?</t>
+  </si>
+  <si>
+    <t>ベガルフの体毛?</t>
+  </si>
+  <si>
+    <t>フォンベガルフの体毛?</t>
+  </si>
+  <si>
+    <t>アセラビーソの原動機?</t>
+  </si>
+  <si>
+    <t>エデリクリトロの毛皮?</t>
+  </si>
+  <si>
+    <t>トネルバンクゥの宝石?</t>
+  </si>
+  <si>
+    <t>レイバンサーの角?</t>
+  </si>
+  <si>
+    <t>フォンベガルフの鋭爪?</t>
+  </si>
+  <si>
+    <t>アセラビーソの硬耳部鎖?</t>
+  </si>
+  <si>
+    <t>レイバンサーの爪?</t>
+  </si>
+  <si>
+    <t>ロヴラッピーの甲片?</t>
+  </si>
+  <si>
+    <t>ヴィマフレザールの皮片?</t>
+  </si>
+  <si>
+    <t>バレダイナスの銃片?</t>
+  </si>
+  <si>
+    <t>シルブカーネベアの砲片?</t>
+  </si>
+  <si>
+    <t>ロヴラッピーの主翼?</t>
+  </si>
+  <si>
+    <t>ヴィマフレザールの鉤爪?</t>
+  </si>
+  <si>
+    <t>バレダイナスの弾倉?</t>
+  </si>
+  <si>
+    <t>シルブカーネベアの毛皮?</t>
+  </si>
+  <si>
+    <t>ロヴラッピーの大機?</t>
+  </si>
+  <si>
+    <t>ヴィマフレザールの硬皮膜?</t>
+  </si>
+  <si>
+    <t>フロベガルフの牙?</t>
+  </si>
+  <si>
+    <t>フロフォンベガルフの牙?</t>
+  </si>
+  <si>
+    <t>イエーデンの爪?</t>
+  </si>
+  <si>
+    <t>ブロラビーソの刃?</t>
+  </si>
+  <si>
+    <t>オーニクリトロの爪?</t>
+  </si>
+  <si>
+    <t>クリトロクィーンの爪?</t>
+  </si>
+  <si>
+    <t>トルリンプのヒレ?</t>
+  </si>
+  <si>
+    <t>フロベガルフの体毛?</t>
+  </si>
+  <si>
+    <t>フロフォンベガルフの体毛?</t>
+  </si>
+  <si>
+    <t>イエーデンの毛皮?</t>
+  </si>
+  <si>
+    <t>ブロラビーソの原動機?</t>
+  </si>
+  <si>
+    <t>オーニクリトロの毛皮?</t>
+  </si>
+  <si>
+    <t>クリトロクィーンの毛皮?</t>
+  </si>
+  <si>
+    <t>フロベガルフの爪?</t>
+  </si>
+  <si>
+    <t>フロフォンベガルフの爪?</t>
+  </si>
+  <si>
+    <t>イエーデンの硬頭骨?</t>
+  </si>
+  <si>
+    <t>爬虫類の牙?</t>
+  </si>
+  <si>
+    <t>ドギオスの骨?</t>
+  </si>
+  <si>
+    <t>サフグランブの爪?</t>
+  </si>
+  <si>
+    <t>マガヴルムの手?</t>
+  </si>
+  <si>
+    <t>リバッツの墨?</t>
+  </si>
+  <si>
+    <t>ウィ・ロヴラッピーの胴甲?</t>
+  </si>
+  <si>
+    <t>コパイエーデンの爪片?</t>
+  </si>
+  <si>
+    <t>ポリジュラキアの羽?</t>
+  </si>
+  <si>
+    <t>マーバレダイナスの銃?</t>
+  </si>
+  <si>
+    <t>水晶竜族の結晶?</t>
+  </si>
+  <si>
+    <t>サフグランブの甲羅?</t>
+  </si>
+  <si>
+    <t>マガヴルムの銃身?</t>
+  </si>
+  <si>
+    <t>リバッツの翼膜?</t>
+  </si>
+  <si>
+    <t>ウィ・ロヴラッピーの主翼?</t>
+  </si>
+  <si>
+    <t>コパイエーデンの毛皮?</t>
+  </si>
+  <si>
+    <t>ポリジュラキアの骨?</t>
+  </si>
+  <si>
+    <t>マーバレダイナスの弾倉?</t>
+  </si>
+  <si>
+    <t>水晶竜族の結晶塊?</t>
+  </si>
+  <si>
+    <t>サフグランブの粘液結晶?</t>
+  </si>
+  <si>
+    <t>リバッツの目玉?</t>
+  </si>
+  <si>
+    <t>ウィ・ロヴラッピーの大機?</t>
+  </si>
+  <si>
+    <t>コパイエーデンの硬頭骨?</t>
+  </si>
+  <si>
+    <t>ポリジュラキアの大尾羽?</t>
+  </si>
+  <si>
+    <t>水晶竜族の鋭結晶角?</t>
+  </si>
+  <si>
+    <t>アビアディノの骨?</t>
+  </si>
+  <si>
+    <t>クロザードのヒレ?</t>
+  </si>
+  <si>
+    <t>エルマフレザールの硬皮?</t>
+  </si>
+  <si>
+    <t>フリラウーダンの爪?</t>
+  </si>
+  <si>
+    <t>ミステルンの鋭角?</t>
+  </si>
+  <si>
+    <t>ラビーソの刃片?</t>
+  </si>
+  <si>
+    <t>レイバンサーの駆動銃座?</t>
+  </si>
+  <si>
+    <t>ウィンディラスの翼?</t>
+  </si>
+  <si>
+    <t>ガンジュラキアの羽片?</t>
+  </si>
+  <si>
+    <t>バンクゥの硬宝石?</t>
+  </si>
+  <si>
+    <t>レウ・ロヴラッピーの胴甲?</t>
+  </si>
+  <si>
+    <t>シードギオスの盾?</t>
+  </si>
+  <si>
+    <t>モストカーネベアの硬砲身?</t>
+  </si>
+  <si>
+    <t>マドアビアディノの大コブ?</t>
+  </si>
+  <si>
+    <t>クロザードの爪?</t>
+  </si>
+  <si>
+    <t>エルマフレザールの鋭鉤爪?</t>
+  </si>
+  <si>
+    <t>フリラウーダンの毛皮?</t>
+  </si>
+  <si>
+    <t>ミステルンの鋭翼角?</t>
+  </si>
+  <si>
+    <t>ラビーソの原動機?</t>
+  </si>
+  <si>
+    <t>ウィンディラスの大尾?</t>
+  </si>
+  <si>
+    <t>ガンジュラキアの硬骨?</t>
+  </si>
+  <si>
+    <t>バンクゥの大宝石?</t>
+  </si>
+  <si>
+    <t>レウ・ロヴラッピーの主翼?</t>
+  </si>
+  <si>
+    <t>シードギオスの硬装甲?</t>
+  </si>
+  <si>
+    <t>モストカーネベアの毛皮?</t>
+  </si>
+  <si>
+    <t>マドアビアディノの鋭爪?</t>
+  </si>
+  <si>
+    <t>フリラウーダンの鋭牙?</t>
+  </si>
+  <si>
+    <t>ラビーソの硬耳部鎖?</t>
+  </si>
+  <si>
+    <t>レウ・ロヴラッピーの大油?</t>
+  </si>
+  <si>
+    <t>ラーアビアディノのコブ?</t>
+  </si>
+  <si>
+    <t>メドジュラキアの大羽?</t>
+  </si>
+  <si>
+    <t>バンサーの爪?</t>
+  </si>
+  <si>
+    <t>バンサーの牙?</t>
+  </si>
+  <si>
+    <t>ラピミステルンの角?</t>
+  </si>
+  <si>
+    <t>ヴァッドギオスの硬盾?</t>
+  </si>
+  <si>
+    <t>スロザードのヒレ?</t>
+  </si>
+  <si>
+    <t>ノイバリドランナの舌?</t>
+  </si>
+  <si>
+    <t>ヴィバレダイナスの銃?</t>
+  </si>
+  <si>
+    <t>ウイマフレザールの皮?</t>
+  </si>
+  <si>
+    <t>ラーアビアディノの爪?</t>
+  </si>
+  <si>
+    <t>メドジュラキアの硬骨?</t>
+  </si>
+  <si>
+    <t>バンサーの骨?</t>
+  </si>
+  <si>
+    <t>ラピミステルンの鋭翼角?</t>
+  </si>
+  <si>
+    <t>ヴァッドギオスの硬装甲?</t>
+  </si>
+  <si>
+    <t>スロザードの鋭爪?</t>
+  </si>
+  <si>
+    <t>ノイバリドランナの鋭爪?</t>
+  </si>
+  <si>
+    <t>ヴィバレダイナスの大弾倉?</t>
+  </si>
+  <si>
+    <t>ウイマフレザールの鋭鉤爪?</t>
+  </si>
+  <si>
+    <t>ラーアビアディノの鋭歯?</t>
+  </si>
+  <si>
+    <t>バンサーの頭角?</t>
+  </si>
+  <si>
+    <t>機械生物の硬皮膜?</t>
+  </si>
+  <si>
+    <t>機械生物の硬骨格?</t>
+  </si>
+  <si>
+    <t>ウロザードの硬ヒレ?</t>
+  </si>
+  <si>
+    <t>レゾルカーネベアの硬砲身?</t>
+  </si>
+  <si>
+    <t>オルテ・マガヴルムの硬手?</t>
+  </si>
+  <si>
+    <t>パーグランブの鋭爪?</t>
+  </si>
+  <si>
+    <t>イーグマンデルの硬鱗?</t>
+  </si>
+  <si>
+    <t>マクロージの鋭角?</t>
+  </si>
+  <si>
+    <t>エアドギオスの大盾?</t>
+  </si>
+  <si>
+    <t>ウロザードの鋭爪?</t>
+  </si>
+  <si>
+    <t>レゾルカーネベアの大毛皮?</t>
+  </si>
+  <si>
+    <t>オルテ・マガヴルムの大銃?</t>
+  </si>
+  <si>
+    <t>パーグランブの硬甲羅?</t>
+  </si>
+  <si>
+    <t>イーグマンデルの大髭?</t>
+  </si>
+  <si>
+    <t>マクロージの大目玉?</t>
+  </si>
+  <si>
+    <t>エアドギオスの硬装甲?</t>
+  </si>
+  <si>
+    <t>エクセージTの大目玉?</t>
+  </si>
+  <si>
+    <t>レゾルカーネベアの硬頭骨?</t>
+  </si>
+  <si>
+    <t>エクセージTの鋭杭腕?</t>
+  </si>
+  <si>
+    <t>ガーグランブの鋭爪?</t>
+  </si>
+  <si>
+    <t>スマラクリトロの鋭爪?</t>
+  </si>
+  <si>
+    <t>レイバンサーの大機関砲?</t>
+  </si>
+  <si>
+    <t>バオム・マガヴルムの硬手?</t>
+  </si>
+  <si>
+    <t>ヴェンバンクゥの硬宝石?</t>
+  </si>
+  <si>
+    <t>エレマンデルの硬棘鱗皮?</t>
+  </si>
+  <si>
+    <t>オラルカーネベアの硬砲身?</t>
+  </si>
+  <si>
+    <t>アビアディノの大コブ?</t>
+  </si>
+  <si>
+    <t>アガミステルンの鋭角?</t>
+  </si>
+  <si>
+    <t>ポルトルリンプの大ヒレ?</t>
+  </si>
+  <si>
+    <t>ガーグランブの硬甲羅?</t>
+  </si>
+  <si>
+    <t>ラーバレダイナスの大弾倉?</t>
+  </si>
+  <si>
+    <t>グリバッツの硬翼膜?</t>
+  </si>
+  <si>
+    <t>スォロバンクゥの大宝石?</t>
+  </si>
+  <si>
+    <t>スマラクリトロの大毛皮?</t>
+  </si>
+  <si>
+    <t>レイバンサーの鋭頭角?</t>
+  </si>
+  <si>
+    <t>バオム・マガヴルムの大銃?</t>
+  </si>
+  <si>
+    <t>ヴェンバンクゥの大宝石?</t>
+  </si>
+  <si>
+    <t>エレマンデルの大髭?</t>
+  </si>
+  <si>
+    <t>オラルカーネベアの大毛皮?</t>
+  </si>
+  <si>
+    <t>アビアディノの鋭爪?</t>
+  </si>
+  <si>
+    <t>アガミステルンの鋭翼角?</t>
+  </si>
+  <si>
+    <t>ポルトルリンプの大胸ビレ?</t>
+  </si>
+  <si>
+    <t>フレスバンクゥの大宝石?</t>
+  </si>
+  <si>
+    <t>ブリバッツの硬翼膜?</t>
+  </si>
+  <si>
+    <t>フォードギオスの硬装甲?</t>
+  </si>
+  <si>
+    <t>ガーグランブの硬粘液結晶?</t>
+  </si>
+  <si>
+    <t>ラーバレダイナスの大照準?</t>
+  </si>
+  <si>
+    <t>レイバンサーの鋭鉤爪?</t>
+  </si>
+  <si>
+    <t>レ・マクロージの鋭角?</t>
+  </si>
+  <si>
+    <t>レ・エクセージTの大目玉?</t>
+  </si>
+  <si>
+    <t>レ・エクセージTの鋭杭腕?</t>
+  </si>
+  <si>
+    <t>バンサーの鋭鉤爪?</t>
+  </si>
+  <si>
+    <t>ミステルンの大しっぽ?</t>
+  </si>
+  <si>
+    <t>バンサーの鋭牙?</t>
+  </si>
+  <si>
+    <t>バンサーの鋭頭角?</t>
+  </si>
+  <si>
+    <t>トルリンプのしっぽ?</t>
   </si>
 </sst>
 </file>
@@ -1168,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E221"/>
+  <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1985,7 +1982,7 @@
         <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1993,7 +1990,7 @@
         <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2001,7 +1998,7 @@
         <v>141</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2009,7 +2006,10 @@
         <v>142</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2017,10 +2017,7 @@
         <v>143</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2028,7 +2025,7 @@
         <v>144</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2036,7 +2033,7 @@
         <v>145</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2044,7 +2041,7 @@
         <v>146</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2062,6 +2059,9 @@
       <c r="B97" t="s">
         <v>16</v>
       </c>
+      <c r="E97" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
@@ -2070,9 +2070,6 @@
       <c r="B98" t="s">
         <v>16</v>
       </c>
-      <c r="E98" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
@@ -2087,7 +2084,10 @@
         <v>151</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="E100" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2095,10 +2095,7 @@
         <v>152</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2106,7 +2103,7 @@
         <v>153</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2122,7 +2119,10 @@
         <v>155</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2132,9 +2132,6 @@
       <c r="B105" t="s">
         <v>13</v>
       </c>
-      <c r="E105" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
@@ -2149,7 +2146,10 @@
         <v>158</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="E107" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2160,7 +2160,7 @@
         <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2168,10 +2168,7 @@
         <v>160</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
-      </c>
-      <c r="E109" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2179,7 +2176,7 @@
         <v>161</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2187,7 +2184,7 @@
         <v>162</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2211,7 +2208,7 @@
         <v>165</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2219,7 +2216,10 @@
         <v>166</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E115" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2227,10 +2227,7 @@
         <v>167</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2238,7 +2235,10 @@
         <v>168</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="E117" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2246,10 +2246,7 @@
         <v>169</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
-      </c>
-      <c r="E118" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2265,7 +2262,7 @@
         <v>171</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2273,7 +2270,7 @@
         <v>172</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2281,7 +2278,7 @@
         <v>173</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2289,7 +2286,7 @@
         <v>174</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2305,7 +2302,7 @@
         <v>176</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2313,7 +2310,7 @@
         <v>177</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2321,7 +2318,7 @@
         <v>178</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2329,7 +2326,7 @@
         <v>179</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2337,7 +2334,7 @@
         <v>180</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2347,16 +2344,16 @@
       <c r="B130" t="s">
         <v>20</v>
       </c>
+      <c r="E130" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>182</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
-      </c>
-      <c r="E131" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2364,7 +2361,7 @@
         <v>183</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2372,7 +2369,7 @@
         <v>184</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2380,7 +2377,10 @@
         <v>185</v>
       </c>
       <c r="B134" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E134" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2390,9 +2390,6 @@
       <c r="B135" t="s">
         <v>20</v>
       </c>
-      <c r="E135" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
@@ -2407,7 +2404,7 @@
         <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2415,7 +2412,7 @@
         <v>189</v>
       </c>
       <c r="B138" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2423,7 +2420,7 @@
         <v>190</v>
       </c>
       <c r="B139" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2431,7 +2428,7 @@
         <v>191</v>
       </c>
       <c r="B140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2439,7 +2436,7 @@
         <v>192</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2447,7 +2444,7 @@
         <v>193</v>
       </c>
       <c r="B142" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2463,7 +2460,7 @@
         <v>195</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2471,7 +2468,7 @@
         <v>196</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2479,7 +2476,10 @@
         <v>197</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="E146" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2487,7 +2487,7 @@
         <v>198</v>
       </c>
       <c r="B147" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E147" t="s">
         <v>12</v>
@@ -2498,10 +2498,7 @@
         <v>199</v>
       </c>
       <c r="B148" t="s">
-        <v>23</v>
-      </c>
-      <c r="E148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2509,7 +2506,7 @@
         <v>200</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2517,7 +2514,7 @@
         <v>201</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2525,7 +2522,7 @@
         <v>202</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2549,7 +2546,10 @@
         <v>205</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="E154" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -2559,16 +2559,13 @@
       <c r="B155" t="s">
         <v>20</v>
       </c>
-      <c r="E155" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>207</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -2576,7 +2573,7 @@
         <v>208</v>
       </c>
       <c r="B157" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -2584,7 +2581,7 @@
         <v>209</v>
       </c>
       <c r="B158" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -2592,7 +2589,7 @@
         <v>210</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -2600,7 +2597,7 @@
         <v>211</v>
       </c>
       <c r="B160" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -2616,7 +2613,7 @@
         <v>213</v>
       </c>
       <c r="B162" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -2624,7 +2621,7 @@
         <v>214</v>
       </c>
       <c r="B163" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -2632,7 +2629,10 @@
         <v>215</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="E164" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -2640,10 +2640,7 @@
         <v>216</v>
       </c>
       <c r="B165" t="s">
-        <v>20</v>
-      </c>
-      <c r="E165" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -2653,19 +2650,19 @@
       <c r="B166" t="s">
         <v>16</v>
       </c>
+      <c r="D166" t="s">
+        <v>40</v>
+      </c>
+      <c r="E166" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>218</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" t="s">
-        <v>40</v>
-      </c>
-      <c r="E167" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -2681,7 +2678,7 @@
         <v>220</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -2697,7 +2694,7 @@
         <v>222</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -2705,7 +2702,7 @@
         <v>223</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -2713,7 +2710,7 @@
         <v>224</v>
       </c>
       <c r="B173" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -2721,7 +2718,7 @@
         <v>225</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -2729,7 +2726,7 @@
         <v>226</v>
       </c>
       <c r="B175" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -2769,7 +2766,7 @@
         <v>231</v>
       </c>
       <c r="B180" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -2777,7 +2774,7 @@
         <v>232</v>
       </c>
       <c r="B181" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -2793,7 +2790,7 @@
         <v>234</v>
       </c>
       <c r="B183" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -2801,7 +2798,7 @@
         <v>235</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -2809,7 +2806,7 @@
         <v>236</v>
       </c>
       <c r="B185" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -2825,7 +2822,10 @@
         <v>238</v>
       </c>
       <c r="B187" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="E187" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -2833,10 +2833,10 @@
         <v>239</v>
       </c>
       <c r="B188" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E188" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -2844,10 +2844,10 @@
         <v>240</v>
       </c>
       <c r="B189" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E189" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -2855,10 +2855,10 @@
         <v>241</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E190" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -2866,10 +2866,7 @@
         <v>242</v>
       </c>
       <c r="B191" t="s">
-        <v>20</v>
-      </c>
-      <c r="E191" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -2877,7 +2874,7 @@
         <v>243</v>
       </c>
       <c r="B192" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -2885,7 +2882,7 @@
         <v>244</v>
       </c>
       <c r="B193" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -2893,7 +2890,7 @@
         <v>245</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -2909,7 +2906,7 @@
         <v>247</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -2917,7 +2914,7 @@
         <v>248</v>
       </c>
       <c r="B197" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -2925,7 +2922,7 @@
         <v>249</v>
       </c>
       <c r="B198" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -2941,7 +2938,10 @@
         <v>251</v>
       </c>
       <c r="B200" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E200" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -2952,7 +2952,7 @@
         <v>20</v>
       </c>
       <c r="E201" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -2960,10 +2960,10 @@
         <v>253</v>
       </c>
       <c r="B202" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E202" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>254</v>
       </c>
       <c r="B203" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E203" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -2982,10 +2982,10 @@
         <v>255</v>
       </c>
       <c r="B204" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E204" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -2995,16 +2995,13 @@
       <c r="B205" t="s">
         <v>13</v>
       </c>
-      <c r="E205" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>257</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3020,7 +3017,7 @@
         <v>259</v>
       </c>
       <c r="B208" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3036,7 +3033,7 @@
         <v>261</v>
       </c>
       <c r="B210" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3044,7 +3041,7 @@
         <v>262</v>
       </c>
       <c r="B211" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3052,7 +3049,10 @@
         <v>263</v>
       </c>
       <c r="B212" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="E212" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3060,10 +3060,7 @@
         <v>264</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
-      </c>
-      <c r="E213" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3071,7 +3068,7 @@
         <v>265</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -3079,7 +3076,7 @@
         <v>266</v>
       </c>
       <c r="B215" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -3087,7 +3084,7 @@
         <v>267</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -3095,7 +3092,7 @@
         <v>268</v>
       </c>
       <c r="B217" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -3103,7 +3100,7 @@
         <v>269</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -3111,7 +3108,7 @@
         <v>270</v>
       </c>
       <c r="B219" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -3119,14 +3116,6 @@
         <v>271</v>
       </c>
       <c r="B220" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
-        <v>272</v>
-      </c>
-      <c r="B221" t="s">
         <v>20</v>
       </c>
     </row>
